--- a/document/pylab works program.xlsx
+++ b/document/pylab works program.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\OPENSOURCE\Data_Python_3\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F360C889-C6E9-4B5D-AD87-F59F227B8B47}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDBFC19E-1327-4E09-98EA-2912FB5503BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5490" yWindow="1470" windowWidth="21600" windowHeight="11385" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8685" yWindow="495" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -856,6 +856,798 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>228411</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>66640</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Hình ảnh 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F5F508C-42C9-4238-A71A-C553C33D6B85}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4200525" y="8115300"/>
+          <a:ext cx="1514286" cy="276190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>504413</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>85681</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Hình ảnh 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D917A8CC-0B1D-460C-80A5-BE8C2FA79752}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="638175" y="6429375"/>
+          <a:ext cx="3295238" cy="352381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>437584</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>180940</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Hình ảnh 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0D0DCD9-1579-48C2-B56C-76A306F83154}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4143375" y="7143750"/>
+          <a:ext cx="4523809" cy="276190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>475767</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>133317</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Hình ảnh 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87AE8B9B-2D5E-4138-8BAF-C40D85BFF671}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4152900" y="7467600"/>
+          <a:ext cx="3866667" cy="266667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>37854</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>66643</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Hình ảnh 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB2C9EB4-FA8F-46D9-BE1A-984AE440D750}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4238625" y="8858250"/>
+          <a:ext cx="1971429" cy="257143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>628244</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>76158</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Hình ảnh 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68A00324-1B03-4515-B225-16DF837A9933}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4238625" y="9334500"/>
+          <a:ext cx="3247619" cy="333333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>380709</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>66642</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Hình ảnh 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E3EDF26-2109-4EEB-8542-3309E891EA87}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4229100" y="10115550"/>
+          <a:ext cx="2323809" cy="266667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>85388</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>123787</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Hình ảnh 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED6170DA-1218-4F4D-A659-BC005BC2C49D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4248150" y="9772650"/>
+          <a:ext cx="2695238" cy="304762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>571192</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>28545</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Hình ảnh 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33102F99-6BC8-4D67-8EAF-101AB7251B5C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4276725" y="10467975"/>
+          <a:ext cx="2466667" cy="238095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>266595</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>161894</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Hình ảnh 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D7A9639-F3F5-40A9-B14A-12CB90DF5184}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4229100" y="11134725"/>
+          <a:ext cx="838095" cy="247619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>552310</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>47595</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Hình ảnh 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{244EA0DC-B9D3-4169-AA2E-F354962375B6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4229100" y="11391900"/>
+          <a:ext cx="1123810" cy="238095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>371358</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>9496</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Hình ảnh 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{535E930E-6E61-4555-BE64-69A2CB9F35ED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4238625" y="12449175"/>
+          <a:ext cx="933333" cy="228571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>190318</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>85689</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Hình ảnh 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE3BC96D-7DD3-4DA0-AB2E-7B5AE7879ED7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4219575" y="13011150"/>
+          <a:ext cx="1457143" cy="285714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>323569</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>123793</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Hình ảnh 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8D7AFEB-6624-4098-ABED-375762ECBE1E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4248150" y="13620750"/>
+          <a:ext cx="2247619" cy="257143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>533179</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>133318</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Hình ảnh 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FFCFBDA-3A40-4B9D-B448-5062C1B8590B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4248150" y="14173200"/>
+          <a:ext cx="1771429" cy="257143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>580885</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>9490</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Hình ảnh 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A3EF3EE-7EC1-4AEC-8F7D-FC2AC04C02CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4257675" y="11677650"/>
+          <a:ext cx="1123810" cy="276190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>523477</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>28462</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="Hình ảnh 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D40466F4-2528-4FDC-8A7B-B35CC6473A08}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5572125" y="11068050"/>
+          <a:ext cx="3180952" cy="904762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>37854</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>85689</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="Hình ảnh 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9CCF897-C833-466A-B4CC-2FD754322FCC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4238625" y="14639925"/>
+          <a:ext cx="1971429" cy="285714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4738,8 +5530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36DAC9EA-7E1A-48A0-BA4F-73E7FFF7C437}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J38" sqref="J38"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="E82" sqref="E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4901,7 +5693,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24A8632F-FB1B-46D5-8D45-A22A9AB1DF04}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="O7" sqref="O6:O7"/>
     </sheetView>
   </sheetViews>

--- a/document/pylab works program.xlsx
+++ b/document/pylab works program.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\OPENSOURCE\Data_Python_3\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDBFC19E-1327-4E09-98EA-2912FB5503BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{483C9E8D-8B0B-4CFB-AF49-DBAD0135B8EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8685" yWindow="495" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6555" yWindow="2490" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>path:</t>
   </si>
@@ -78,6 +78,9 @@
   </si>
   <si>
     <t>text</t>
+  </si>
+  <si>
+    <t>chế độ thiết kế</t>
   </si>
 </sst>
 </file>
@@ -861,15 +864,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
+      <xdr:colOff>142875</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>228411</xdr:colOff>
+      <xdr:colOff>285561</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>66640</xdr:rowOff>
+      <xdr:rowOff>85690</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -892,7 +895,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4200525" y="8115300"/>
+          <a:off x="4257675" y="8134350"/>
           <a:ext cx="1514286" cy="276190"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -904,16 +907,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>504413</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>85681</xdr:rowOff>
+      <xdr:colOff>580613</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>9481</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -936,7 +939,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="638175" y="6429375"/>
+          <a:off x="714375" y="5810250"/>
           <a:ext cx="3295238" cy="352381"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -949,15 +952,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+      <xdr:colOff>142875</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>437584</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>180940</xdr:rowOff>
+      <xdr:colOff>551884</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>76165</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -980,7 +983,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4143375" y="7143750"/>
+          <a:off x="4257675" y="7219950"/>
           <a:ext cx="4523809" cy="276190"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -993,15 +996,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>475767</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>133317</xdr:rowOff>
+      <xdr:colOff>599592</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>85692</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1024,7 +1027,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4152900" y="7467600"/>
+          <a:off x="4276725" y="7600950"/>
           <a:ext cx="3866667" cy="266667"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1038,13 +1041,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>37854</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>66643</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1068,7 +1071,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4238625" y="8858250"/>
+          <a:off x="4238625" y="8677275"/>
           <a:ext cx="1971429" cy="257143"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1642,6 +1645,94 @@
         <a:xfrm>
           <a:off x="4238625" y="14639925"/>
           <a:ext cx="1971429" cy="285714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>485476</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>85687</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="Hình ảnh 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4217955-1AED-4870-B843-A0AF3DB5970B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4267200" y="6296025"/>
+          <a:ext cx="2390476" cy="304762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>552146</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>66645</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="Hình ảnh 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E98E4DFD-89D9-41AD-9303-67F8D1BAA588}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4295775" y="6705600"/>
+          <a:ext cx="2428571" cy="238095"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5528,14 +5619,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36DAC9EA-7E1A-48A0-BA4F-73E7FFF7C437}">
-  <dimension ref="A1"/>
+  <dimension ref="K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="E82" sqref="E82"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="36" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K36" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/document/pylab works program.xlsx
+++ b/document/pylab works program.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\OPENSOURCE\Data_Python_3\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{483C9E8D-8B0B-4CFB-AF49-DBAD0135B8EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7110FD00-BCAD-4A26-8839-5A104FA46107}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6555" yWindow="2490" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>path:</t>
   </si>
@@ -81,6 +81,18 @@
   </si>
   <si>
     <t>chế độ thiết kế</t>
+  </si>
+  <si>
+    <t>Panel Left</t>
+  </si>
+  <si>
+    <t>Shape Container</t>
+  </si>
+  <si>
+    <t>button</t>
+  </si>
+  <si>
+    <t>menu</t>
   </si>
 </sst>
 </file>
@@ -1733,6 +1745,50 @@
         <a:xfrm>
           <a:off x="4295775" y="6705600"/>
           <a:ext cx="2428571" cy="238095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>132838</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>180720</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="Hình ảnh 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B9184E0-00A9-4C2D-9449-921A1D1BAF17}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9753600" y="3390900"/>
+          <a:ext cx="4095238" cy="2038095"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5619,14 +5675,34 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36DAC9EA-7E1A-48A0-BA4F-73E7FFF7C437}">
-  <dimension ref="K36"/>
+  <dimension ref="K7:P36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="K38" sqref="K38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
+    <row r="7" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P15" t="s">
+        <v>17</v>
+      </c>
+    </row>
     <row r="36" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K36" t="s">
         <v>15</v>
